--- a/tables.xlsx
+++ b/tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>label</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Sports</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>F Measure</t>
   </si>
 </sst>
 </file>
@@ -120,8 +132,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -161,6 +177,8 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -172,6 +190,8 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -515,7 +535,7 @@
     <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +560,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -567,8 +596,17 @@
       <c r="H2">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>2.2727270000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.3478259999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -594,8 +632,17 @@
       <c r="H3">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -621,8 +668,17 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -648,8 +704,17 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0.625</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.86845826999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -675,8 +740,17 @@
       <c r="H6">
         <v>286</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.76923076999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -702,8 +776,17 @@
       <c r="H7">
         <v>149</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -729,8 +812,22 @@
       <c r="H8">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,8 +852,17 @@
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -767,7 +873,7 @@
         <v>0.11083333333333301</v>
       </c>
       <c r="D12">
-        <v>0.56388158775570496</v>
+        <v>0.60087484409242498</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -781,8 +887,17 @@
       <c r="H12">
         <v>266</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -793,22 +908,31 @@
         <v>0.26333333333333298</v>
       </c>
       <c r="D13">
-        <v>0.61076185786500903</v>
+        <v>0.60348423151275399</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>624</v>
+      </c>
+      <c r="I13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="J13">
+        <v>2.04081632653061E-2</v>
+      </c>
+      <c r="K13">
+        <v>3.9513677811550199E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -819,7 +943,7 @@
         <v>0.288333333333333</v>
       </c>
       <c r="D14">
-        <v>0.56560888237603402</v>
+        <v>0.55947191726117096</v>
       </c>
       <c r="E14">
         <v>1708</v>
@@ -833,86 +957,122 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0.711666666666667</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.83154819863680596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.64291666666666702</v>
+        <v>0.64041666666666697</v>
       </c>
       <c r="C15">
-        <v>0.35708333333333298</v>
+        <v>0.35958333333333298</v>
       </c>
       <c r="D15">
-        <v>0.49503882137345701</v>
+        <v>0.522219057436343</v>
       </c>
       <c r="E15">
         <v>1536</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0.64026677782409303</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.78068614993646801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0.75583333333333302</v>
+        <v>0.757083333333333</v>
       </c>
       <c r="C16">
-        <v>0.244166666666667</v>
+        <v>0.242916666666667</v>
       </c>
       <c r="D16">
-        <v>0.518530441013073</v>
+        <v>0.50427117248853304</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>583</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>0.65083333333333304</v>
+        <v>0.64958333333333296</v>
       </c>
       <c r="C17">
-        <v>0.34916666666666701</v>
+        <v>0.35041666666666699</v>
       </c>
       <c r="D17">
-        <v>0.54994505494505497</v>
+        <v>0.54569024725274795</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>834</v>
+      </c>
+      <c r="I17">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="J17">
+        <v>7.14285714285714E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.4067995310668199E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -923,7 +1083,7 @@
         <v>8.7083333333333304E-2</v>
       </c>
       <c r="D18">
-        <v>0.58545943714936599</v>
+        <v>0.55548688741895402</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -936,6 +1096,15 @@
       </c>
       <c r="H18">
         <v>209</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>label</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>F Measure</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -131,8 +137,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -160,12 +402,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -179,6 +463,11 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,6 +481,11 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,593 +815,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:12" ht="16" thickBot="1"/>
+    <row r="2" spans="2:12">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:12" ht="16" thickBot="1">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C4" s="11">
         <v>0.89</v>
       </c>
-      <c r="C2">
-        <f>1-B2</f>
+      <c r="D4" s="11">
+        <f>1-C4</f>
         <v>0.10999999999999999</v>
       </c>
-      <c r="D2">
+      <c r="E4" s="11">
         <v>0.54832740000000002</v>
       </c>
-      <c r="E2">
+      <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G4" s="11">
         <v>355</v>
       </c>
-      <c r="G2">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I4" s="11">
         <v>43</v>
       </c>
-      <c r="I2">
+      <c r="J4" s="11">
         <v>0.5</v>
       </c>
-      <c r="J2">
+      <c r="K4" s="11">
         <v>2.2727270000000001E-2</v>
       </c>
-      <c r="K2">
+      <c r="L4" s="12">
         <v>4.3478259999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C5" s="1">
         <v>0.73499999999999999</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">1-B3</f>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D10" si="0">1-C5</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E5" s="1">
         <v>0.5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>294</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>106</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="C6" s="1">
         <v>0.76749999999999996</v>
       </c>
-      <c r="C4">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.23250000000000004</v>
       </c>
-      <c r="D4">
+      <c r="E6" s="1">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="F6" s="1">
         <v>307</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>93</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.76749999999999996</v>
       </c>
-      <c r="J4">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C7" s="1">
         <v>0.625</v>
       </c>
-      <c r="C5">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="D5">
+      <c r="E7" s="1">
         <v>0.5</v>
       </c>
-      <c r="E5">
+      <c r="F7" s="1">
         <v>250</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>150</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.625</v>
       </c>
-      <c r="J5">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L7" s="6">
         <v>0.86845826999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="C8" s="1">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C6">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0.71500000000000008</v>
       </c>
-      <c r="D6">
+      <c r="E8" s="1">
         <v>0.5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>286</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>286</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>0.76923076999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="9" spans="2:12">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="C9" s="1">
         <v>0.62749999999999995</v>
       </c>
-      <c r="C7">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.37250000000000005</v>
       </c>
-      <c r="D7">
+      <c r="E9" s="1">
         <v>0.5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>149</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>149</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="C10" s="1">
         <v>0.93</v>
       </c>
-      <c r="C8">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="D8">
+      <c r="E10" s="1">
         <v>0.5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>28</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16" thickBot="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16" thickBot="1"/>
+    <row r="13" spans="2:12">
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="16" thickBot="1">
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+    <row r="15" spans="2:12">
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="C15" s="11">
         <v>0.88916666666666699</v>
       </c>
-      <c r="C12">
+      <c r="D15" s="11">
         <v>0.11083333333333301</v>
       </c>
-      <c r="D12">
+      <c r="E15" s="11">
         <v>0.60087484409242498</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>2134</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
         <v>266</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C16" s="1">
         <v>0.73666666666666702</v>
       </c>
-      <c r="C13">
+      <c r="D16" s="1">
         <v>0.26333333333333298</v>
       </c>
-      <c r="D13">
+      <c r="E16" s="1">
         <v>0.60348423151275399</v>
       </c>
-      <c r="E13">
+      <c r="F16" s="1">
         <v>13</v>
       </c>
-      <c r="F13">
+      <c r="G16" s="1">
         <v>1755</v>
       </c>
-      <c r="G13">
+      <c r="H16" s="1">
         <v>8</v>
       </c>
-      <c r="H13">
+      <c r="I16" s="1">
         <v>624</v>
       </c>
-      <c r="I13">
+      <c r="J16" s="1">
         <v>0.61904761904761896</v>
       </c>
-      <c r="J13">
+      <c r="K16" s="1">
         <v>2.04081632653061E-2</v>
       </c>
-      <c r="K13">
+      <c r="L16" s="6">
         <v>3.9513677811550199E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="17" spans="2:12">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="C17" s="1">
         <v>0.711666666666667</v>
       </c>
-      <c r="C14">
+      <c r="D17" s="1">
         <v>0.288333333333333</v>
       </c>
-      <c r="D14">
+      <c r="E17" s="1">
         <v>0.55947191726117096</v>
       </c>
-      <c r="E14">
+      <c r="F17" s="1">
         <v>1708</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>692</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.711666666666667</v>
       </c>
-      <c r="J14">
+      <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="L17" s="6">
         <v>0.83154819863680596</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="18" spans="2:12">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="C18" s="1">
         <v>0.64041666666666697</v>
       </c>
-      <c r="C15">
+      <c r="D18" s="1">
         <v>0.35958333333333298</v>
       </c>
-      <c r="D15">
+      <c r="E18" s="1">
         <v>0.522219057436343</v>
       </c>
-      <c r="E15">
+      <c r="F18" s="1">
         <v>1536</v>
       </c>
-      <c r="F15">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="H18" s="1">
         <v>863</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.64026677782409303</v>
       </c>
-      <c r="J15">
+      <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="L18" s="6">
         <v>0.78068614993646801</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="19" spans="2:12">
+      <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="C19" s="1">
         <v>0.757083333333333</v>
       </c>
-      <c r="C16">
+      <c r="D19" s="1">
         <v>0.242916666666667</v>
       </c>
-      <c r="D16">
+      <c r="E19" s="1">
         <v>0.50427117248853304</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>1817</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>583</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="C20" s="1">
         <v>0.64958333333333296</v>
       </c>
-      <c r="C17">
+      <c r="D20" s="1">
         <v>0.35041666666666699</v>
       </c>
-      <c r="D17">
+      <c r="E20" s="1">
         <v>0.54569024725274795</v>
       </c>
-      <c r="E17">
+      <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="G20" s="1">
         <v>1553</v>
       </c>
-      <c r="G17">
+      <c r="H20" s="1">
         <v>7</v>
       </c>
-      <c r="H17">
+      <c r="I20" s="1">
         <v>834</v>
       </c>
-      <c r="I17">
+      <c r="J20" s="1">
         <v>0.46153846153846201</v>
       </c>
-      <c r="J17">
+      <c r="K20" s="1">
         <v>7.14285714285714E-3</v>
       </c>
-      <c r="K17">
+      <c r="L20" s="6">
         <v>1.4067995310668199E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+    <row r="21" spans="2:12" ht="16" thickBot="1">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="C21" s="8">
         <v>0.91291666666666704</v>
       </c>
-      <c r="C18">
+      <c r="D21" s="8">
         <v>8.7083333333333304E-2</v>
       </c>
-      <c r="D18">
+      <c r="E21" s="8">
         <v>0.55548688741895402</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
         <v>2191</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
         <v>209</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B2:L2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
